--- a/doc/transmit_fm.xlsx
+++ b/doc/transmit_fm.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>n2</t>
   </si>
@@ -45,18 +45,9 @@
     <t>n1 (const)</t>
   </si>
   <si>
-    <t>fRef (const)</t>
-  </si>
-  <si>
     <t>(i2s)</t>
   </si>
   <si>
-    <t>(pll)</t>
-  </si>
-  <si>
-    <t>CCM_ANALOG_PLL_VIDEO_NUM</t>
-  </si>
-  <si>
     <t>POST DIV SELECT (PLL)(const)</t>
   </si>
   <si>
@@ -84,10 +75,49 @@
     <t>DENOM(PLL, const)</t>
   </si>
   <si>
-    <t>(const)</t>
-  </si>
-  <si>
-    <t>See Rerence Manual: Clock Tree, PLL, I2S</t>
+    <t>NUM:</t>
+  </si>
+  <si>
+    <t>DENOM:</t>
+  </si>
+  <si>
+    <t>Clock Tree: Page 1016</t>
+  </si>
+  <si>
+    <t>Bits</t>
+  </si>
+  <si>
+    <t>CCM_ANALOG_PLL_VIDEO_NUM: Page 1116</t>
+  </si>
+  <si>
+    <t>CCM_ANALOG_PLL_VIDEO_DENOM: Page 1116</t>
+  </si>
+  <si>
+    <t>See Rerence Manual:</t>
+  </si>
+  <si>
+    <t>PLL DIV_SELECT</t>
+  </si>
+  <si>
+    <t>DIV_SELECT: Page 1116</t>
+  </si>
+  <si>
+    <t>Values 1 or 2 or 4</t>
+  </si>
+  <si>
+    <t>DENOM(PLL, const) # of Bits</t>
+  </si>
+  <si>
+    <t>fRef (cons, fixed)</t>
+  </si>
+  <si>
+    <t>fRef multiplicator(const)</t>
+  </si>
+  <si>
+    <t>Should be 27..54</t>
+  </si>
+  <si>
+    <t>should be &lt;300MHz</t>
   </si>
 </sst>
 </file>
@@ -118,13 +148,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -141,20 +171,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -444,201 +501,272 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.140625" customWidth="1"/>
+    <col min="1" max="1" width="43.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11">
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2">
+        <f>107000000</f>
+        <v>107000000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="7">
+        <v>24000000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="3">
+        <v>20</v>
+      </c>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4">
+        <f>2^B4</f>
+        <v>1048576</v>
+      </c>
+      <c r="E5" s="5">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4">
+        <f>B2*B10</f>
+        <v>428000000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="5">
+        <f>1+INT((E3*E5)/(B6*B3))</f>
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="6">
+        <f>B6 * B3 * B7 / E3</f>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="4">
+        <f>INT(B8)</f>
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3">
-        <f>91000000-75000</f>
-        <v>90925000</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B11" s="4">
+        <f>B8*B5 - (B9*B5)</f>
+        <v>699050.66666666418</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1">
+        <f>E3</f>
+        <v>24000000</v>
+      </c>
+      <c r="B15" s="4">
+        <f>B9</f>
+        <v>35</v>
+      </c>
+      <c r="C15" s="4">
+        <f>B11</f>
+        <v>699050.66666666418</v>
+      </c>
+      <c r="D15" s="4">
+        <f>B5</f>
+        <v>1048576</v>
+      </c>
+      <c r="E15" s="6">
+        <f>A15*(B15+C15/D15)</f>
+        <v>856000000</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="7">
-        <v>24000000</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
+      <c r="J15" s="5">
+        <f>ROUNDUP(LOG(C15,2),0)</f>
+        <v>20</v>
+      </c>
+      <c r="K15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="E16" s="6">
+        <f>E15 / B10</f>
+        <v>214000000</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="5">
+        <f>ROUNDUP(LOG(D15,2),0)</f>
+        <v>20</v>
+      </c>
+      <c r="K16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="E17" s="6">
+        <f>E16/B3</f>
+        <v>214000000</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="E18" s="6">
+        <f>E17/B7</f>
+        <v>107000000</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="3">
-        <v>16777215</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3">
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2">
-        <f>B1*B8</f>
-        <v>181850000</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="6">
-        <f>INT(1+(E2*E3)/(B4*B2))</f>
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="5">
-        <f>B4 * B2 * B5 / E2</f>
-        <v>30.308333333333334</v>
-      </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2">
-        <f>INT(B6)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="2">
-        <f>B6*B3 - (B7*B3)</f>
-        <v>5172974.625</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
-        <f>E2</f>
-        <v>24000000</v>
-      </c>
-      <c r="B13" s="2">
-        <f>B7</f>
-        <v>30</v>
-      </c>
-      <c r="C13" s="2">
-        <f>B9</f>
-        <v>5172974.625</v>
-      </c>
-      <c r="D13" s="2">
-        <f>B3</f>
-        <v>16777215</v>
-      </c>
-      <c r="E13" s="5">
-        <f>A13*(B13+C13/D13)</f>
-        <v>727400000</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="E14" s="5">
-        <f>E13 / B8</f>
-        <v>363700000</v>
-      </c>
-      <c r="F14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="E15" s="5">
-        <f>E14/B2</f>
-        <v>181850000</v>
-      </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="E16" s="5">
-        <f>E15/B5</f>
-        <v>90925000</v>
-      </c>
-      <c r="F16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
         <v>23</v>
       </c>
     </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>27</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>54</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
